--- a/Data/EC/NIT-9002944514.xlsx
+++ b/Data/EC/NIT-9002944514.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{119AC11D-8F8D-4C01-802C-74ED05B5B6E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B5B407B8-CE94-4C31-B1E2-9C736036CC9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{E571BCBC-85A0-4C8F-B888-EE97BF3603A3}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{A25ED4A0-812F-4F7D-BD18-DF35061E4F08}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -71,121 +71,121 @@
     <t>RICARDO HERNANDEZ NAVARRO</t>
   </si>
   <si>
+    <t>1701</t>
+  </si>
+  <si>
+    <t>1702</t>
+  </si>
+  <si>
+    <t>1703</t>
+  </si>
+  <si>
+    <t>1704</t>
+  </si>
+  <si>
+    <t>1705</t>
+  </si>
+  <si>
+    <t>1706</t>
+  </si>
+  <si>
+    <t>1707</t>
+  </si>
+  <si>
+    <t>1708</t>
+  </si>
+  <si>
+    <t>1709</t>
+  </si>
+  <si>
+    <t>1710</t>
+  </si>
+  <si>
+    <t>1711</t>
+  </si>
+  <si>
+    <t>1712</t>
+  </si>
+  <si>
+    <t>1801</t>
+  </si>
+  <si>
+    <t>1802</t>
+  </si>
+  <si>
+    <t>1803</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
     <t>2003</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>1803</t>
-  </si>
-  <si>
-    <t>1802</t>
-  </si>
-  <si>
-    <t>1801</t>
-  </si>
-  <si>
-    <t>1712</t>
-  </si>
-  <si>
-    <t>1711</t>
-  </si>
-  <si>
-    <t>1710</t>
-  </si>
-  <si>
-    <t>1709</t>
-  </si>
-  <si>
-    <t>1708</t>
-  </si>
-  <si>
-    <t>1707</t>
-  </si>
-  <si>
-    <t>1706</t>
-  </si>
-  <si>
-    <t>1705</t>
-  </si>
-  <si>
-    <t>1704</t>
-  </si>
-  <si>
-    <t>1703</t>
-  </si>
-  <si>
-    <t>1702</t>
-  </si>
-  <si>
-    <t>1701</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -284,7 +284,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -297,9 +299,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -499,23 +499,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -543,10 +543,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -599,7 +599,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5FF8F9FC-DFCB-B6C2-FEC7-181EAA7A9107}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F71C3B8C-BE96-76BD-CBC3-20EC75AE2E8C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -950,7 +950,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D97A20F1-D789-4A00-8B4E-413D0CFFD5D4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBE6C86D-013B-40F7-B128-128A525BEA47}">
   <dimension ref="B2:J60"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1128,10 +1128,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>31249</v>
+        <v>27580</v>
       </c>
       <c r="G16" s="18">
-        <v>689500</v>
+        <v>781242</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1151,10 +1151,10 @@
         <v>12</v>
       </c>
       <c r="F17" s="18">
-        <v>31249</v>
+        <v>27580</v>
       </c>
       <c r="G17" s="18">
-        <v>689500</v>
+        <v>781242</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1174,10 +1174,10 @@
         <v>13</v>
       </c>
       <c r="F18" s="18">
-        <v>31249</v>
+        <v>27580</v>
       </c>
       <c r="G18" s="18">
-        <v>689500</v>
+        <v>781242</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1197,10 +1197,10 @@
         <v>14</v>
       </c>
       <c r="F19" s="18">
-        <v>31249</v>
+        <v>27580</v>
       </c>
       <c r="G19" s="18">
-        <v>689500</v>
+        <v>781242</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1220,10 +1220,10 @@
         <v>15</v>
       </c>
       <c r="F20" s="18">
-        <v>31249</v>
+        <v>27580</v>
       </c>
       <c r="G20" s="18">
-        <v>689500</v>
+        <v>781242</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1243,10 +1243,10 @@
         <v>16</v>
       </c>
       <c r="F21" s="18">
-        <v>31249</v>
+        <v>27580</v>
       </c>
       <c r="G21" s="18">
-        <v>689500</v>
+        <v>781242</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1266,10 +1266,10 @@
         <v>17</v>
       </c>
       <c r="F22" s="18">
-        <v>31249</v>
+        <v>27580</v>
       </c>
       <c r="G22" s="18">
-        <v>689500</v>
+        <v>781242</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1289,10 +1289,10 @@
         <v>18</v>
       </c>
       <c r="F23" s="18">
-        <v>31249</v>
+        <v>27580</v>
       </c>
       <c r="G23" s="18">
-        <v>689500</v>
+        <v>781242</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1312,10 +1312,10 @@
         <v>19</v>
       </c>
       <c r="F24" s="18">
-        <v>31249</v>
+        <v>27580</v>
       </c>
       <c r="G24" s="18">
-        <v>689500</v>
+        <v>781242</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1335,10 +1335,10 @@
         <v>20</v>
       </c>
       <c r="F25" s="18">
-        <v>31249</v>
+        <v>27580</v>
       </c>
       <c r="G25" s="18">
-        <v>689500</v>
+        <v>781242</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1358,10 +1358,10 @@
         <v>21</v>
       </c>
       <c r="F26" s="18">
-        <v>31249</v>
+        <v>27580</v>
       </c>
       <c r="G26" s="18">
-        <v>689500</v>
+        <v>781242</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1381,10 +1381,10 @@
         <v>22</v>
       </c>
       <c r="F27" s="18">
-        <v>31249</v>
+        <v>27580</v>
       </c>
       <c r="G27" s="18">
-        <v>689500</v>
+        <v>781242</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -1404,10 +1404,10 @@
         <v>23</v>
       </c>
       <c r="F28" s="18">
-        <v>31249</v>
+        <v>27580</v>
       </c>
       <c r="G28" s="18">
-        <v>689500</v>
+        <v>781242</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
@@ -1427,10 +1427,10 @@
         <v>24</v>
       </c>
       <c r="F29" s="18">
-        <v>31249</v>
+        <v>27580</v>
       </c>
       <c r="G29" s="18">
-        <v>689500</v>
+        <v>781242</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -1450,10 +1450,10 @@
         <v>25</v>
       </c>
       <c r="F30" s="18">
-        <v>31249</v>
+        <v>27580</v>
       </c>
       <c r="G30" s="18">
-        <v>689500</v>
+        <v>781242</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
@@ -1473,10 +1473,10 @@
         <v>26</v>
       </c>
       <c r="F31" s="18">
-        <v>31249</v>
+        <v>27580</v>
       </c>
       <c r="G31" s="18">
-        <v>689500</v>
+        <v>781242</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
@@ -1496,10 +1496,10 @@
         <v>27</v>
       </c>
       <c r="F32" s="18">
-        <v>31249</v>
+        <v>27580</v>
       </c>
       <c r="G32" s="18">
-        <v>689500</v>
+        <v>781242</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
@@ -1519,10 +1519,10 @@
         <v>28</v>
       </c>
       <c r="F33" s="18">
-        <v>31249</v>
+        <v>27580</v>
       </c>
       <c r="G33" s="18">
-        <v>689500</v>
+        <v>781242</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
@@ -1542,10 +1542,10 @@
         <v>29</v>
       </c>
       <c r="F34" s="18">
-        <v>31249</v>
+        <v>27580</v>
       </c>
       <c r="G34" s="18">
-        <v>689500</v>
+        <v>781242</v>
       </c>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
@@ -1568,7 +1568,7 @@
         <v>27580</v>
       </c>
       <c r="G35" s="18">
-        <v>689500</v>
+        <v>781242</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
@@ -1588,10 +1588,10 @@
         <v>31</v>
       </c>
       <c r="F36" s="18">
-        <v>27580</v>
+        <v>31249</v>
       </c>
       <c r="G36" s="18">
-        <v>689500</v>
+        <v>781242</v>
       </c>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
@@ -1611,10 +1611,10 @@
         <v>32</v>
       </c>
       <c r="F37" s="18">
-        <v>27580</v>
+        <v>31249</v>
       </c>
       <c r="G37" s="18">
-        <v>689500</v>
+        <v>781242</v>
       </c>
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
@@ -1634,10 +1634,10 @@
         <v>33</v>
       </c>
       <c r="F38" s="18">
-        <v>27580</v>
+        <v>31249</v>
       </c>
       <c r="G38" s="18">
-        <v>689500</v>
+        <v>781242</v>
       </c>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
@@ -1657,10 +1657,10 @@
         <v>34</v>
       </c>
       <c r="F39" s="18">
-        <v>27580</v>
+        <v>31249</v>
       </c>
       <c r="G39" s="18">
-        <v>689500</v>
+        <v>781242</v>
       </c>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
@@ -1680,10 +1680,10 @@
         <v>35</v>
       </c>
       <c r="F40" s="18">
-        <v>27580</v>
+        <v>31249</v>
       </c>
       <c r="G40" s="18">
-        <v>689500</v>
+        <v>781242</v>
       </c>
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
@@ -1703,10 +1703,10 @@
         <v>36</v>
       </c>
       <c r="F41" s="18">
-        <v>27580</v>
+        <v>31249</v>
       </c>
       <c r="G41" s="18">
-        <v>689500</v>
+        <v>781242</v>
       </c>
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
@@ -1726,10 +1726,10 @@
         <v>37</v>
       </c>
       <c r="F42" s="18">
-        <v>27580</v>
+        <v>31249</v>
       </c>
       <c r="G42" s="18">
-        <v>689500</v>
+        <v>781242</v>
       </c>
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
@@ -1749,10 +1749,10 @@
         <v>38</v>
       </c>
       <c r="F43" s="18">
-        <v>27580</v>
+        <v>31249</v>
       </c>
       <c r="G43" s="18">
-        <v>689500</v>
+        <v>781242</v>
       </c>
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
@@ -1772,10 +1772,10 @@
         <v>39</v>
       </c>
       <c r="F44" s="18">
-        <v>27580</v>
+        <v>31249</v>
       </c>
       <c r="G44" s="18">
-        <v>689500</v>
+        <v>781242</v>
       </c>
       <c r="H44" s="19"/>
       <c r="I44" s="19"/>
@@ -1795,10 +1795,10 @@
         <v>40</v>
       </c>
       <c r="F45" s="18">
-        <v>27580</v>
+        <v>31249</v>
       </c>
       <c r="G45" s="18">
-        <v>689500</v>
+        <v>781242</v>
       </c>
       <c r="H45" s="19"/>
       <c r="I45" s="19"/>
@@ -1818,10 +1818,10 @@
         <v>41</v>
       </c>
       <c r="F46" s="18">
-        <v>27580</v>
+        <v>31249</v>
       </c>
       <c r="G46" s="18">
-        <v>689500</v>
+        <v>781242</v>
       </c>
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
@@ -1841,10 +1841,10 @@
         <v>42</v>
       </c>
       <c r="F47" s="18">
-        <v>27580</v>
+        <v>31249</v>
       </c>
       <c r="G47" s="18">
-        <v>689500</v>
+        <v>781242</v>
       </c>
       <c r="H47" s="19"/>
       <c r="I47" s="19"/>
@@ -1864,10 +1864,10 @@
         <v>43</v>
       </c>
       <c r="F48" s="18">
-        <v>27580</v>
+        <v>31249</v>
       </c>
       <c r="G48" s="18">
-        <v>689500</v>
+        <v>781242</v>
       </c>
       <c r="H48" s="19"/>
       <c r="I48" s="19"/>
@@ -1887,10 +1887,10 @@
         <v>44</v>
       </c>
       <c r="F49" s="18">
-        <v>27580</v>
+        <v>31249</v>
       </c>
       <c r="G49" s="18">
-        <v>689500</v>
+        <v>781242</v>
       </c>
       <c r="H49" s="19"/>
       <c r="I49" s="19"/>
@@ -1910,10 +1910,10 @@
         <v>45</v>
       </c>
       <c r="F50" s="18">
-        <v>27580</v>
+        <v>31249</v>
       </c>
       <c r="G50" s="18">
-        <v>689500</v>
+        <v>781242</v>
       </c>
       <c r="H50" s="19"/>
       <c r="I50" s="19"/>
@@ -1933,10 +1933,10 @@
         <v>46</v>
       </c>
       <c r="F51" s="18">
-        <v>27580</v>
+        <v>31249</v>
       </c>
       <c r="G51" s="18">
-        <v>689500</v>
+        <v>781242</v>
       </c>
       <c r="H51" s="19"/>
       <c r="I51" s="19"/>
@@ -1956,10 +1956,10 @@
         <v>47</v>
       </c>
       <c r="F52" s="18">
-        <v>27580</v>
+        <v>31249</v>
       </c>
       <c r="G52" s="18">
-        <v>689500</v>
+        <v>781242</v>
       </c>
       <c r="H52" s="19"/>
       <c r="I52" s="19"/>
@@ -1979,10 +1979,10 @@
         <v>48</v>
       </c>
       <c r="F53" s="18">
-        <v>27580</v>
+        <v>31249</v>
       </c>
       <c r="G53" s="18">
-        <v>689500</v>
+        <v>781242</v>
       </c>
       <c r="H53" s="19"/>
       <c r="I53" s="19"/>
@@ -2002,10 +2002,10 @@
         <v>49</v>
       </c>
       <c r="F54" s="24">
-        <v>27580</v>
+        <v>31249</v>
       </c>
       <c r="G54" s="24">
-        <v>689500</v>
+        <v>781242</v>
       </c>
       <c r="H54" s="25"/>
       <c r="I54" s="25"/>
